--- a/display_calibration_data.xlsx
+++ b/display_calibration_data.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dengzhe Hou\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\houde\Downloads\display_calibration-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29C1718-DB21-4F7A-83C2-BBC2DAF5801B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263EAF13-D602-459E-941E-3C3C7E850E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{DE565167-986C-4FCD-991C-54BF06678A54}"/>
+    <workbookView xWindow="10656" yWindow="1596" windowWidth="17280" windowHeight="9420" activeTab="1" xr2:uid="{DE565167-986C-4FCD-991C-54BF06678A54}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="data" sheetId="2" r:id="rId2"/>
+    <sheet name="environment" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,17 +35,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Lv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10,92</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>luminance</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -55,23 +52,35 @@
     <t>environment 124.7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>luminance1</t>
+  </si>
+  <si>
+    <t>luminance2</t>
+  </si>
+  <si>
+    <t>luminance3</t>
+  </si>
+  <si>
+    <t>luminance_average</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -423,64 +432,64 @@
       <selection activeCell="A59" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>30</v>
       </c>
@@ -488,7 +497,7 @@
         <v>3.73</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>33</v>
       </c>
@@ -496,7 +505,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>36</v>
       </c>
@@ -504,7 +513,7 @@
         <v>7.04</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>39</v>
       </c>
@@ -521,7 +530,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>42</v>
       </c>
@@ -529,7 +538,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>45</v>
       </c>
@@ -537,7 +546,7 @@
         <v>8.65</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>48</v>
       </c>
@@ -545,7 +554,7 @@
         <v>9.5399999999999991</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>51</v>
       </c>
@@ -553,7 +562,7 @@
         <v>8.5500000000000007</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>54</v>
       </c>
@@ -561,7 +570,7 @@
         <v>11.07</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>57</v>
       </c>
@@ -569,7 +578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>60</v>
       </c>
@@ -577,7 +586,7 @@
         <v>10.25</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>63</v>
       </c>
@@ -585,7 +594,7 @@
         <v>10.78</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24">
         <v>66</v>
       </c>
@@ -593,7 +602,7 @@
         <v>12.01</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>69</v>
       </c>
@@ -601,7 +610,7 @@
         <v>16.14</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26">
         <v>72</v>
       </c>
@@ -609,7 +618,7 @@
         <v>16.010000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27">
         <v>75</v>
       </c>
@@ -617,7 +626,7 @@
         <v>19.66</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28">
         <v>78</v>
       </c>
@@ -625,7 +634,7 @@
         <v>20.14</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29">
         <v>81</v>
       </c>
@@ -633,7 +642,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30">
         <v>84</v>
       </c>
@@ -641,7 +650,7 @@
         <v>24.58</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31">
         <v>87</v>
       </c>
@@ -649,7 +658,7 @@
         <v>26.83</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32">
         <v>90</v>
       </c>
@@ -657,7 +666,7 @@
         <v>30.61</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33">
         <v>93</v>
       </c>
@@ -665,7 +674,7 @@
         <v>24.92</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34">
         <v>96</v>
       </c>
@@ -673,7 +682,7 @@
         <v>28.28</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35">
         <v>99</v>
       </c>
@@ -681,7 +690,7 @@
         <v>26.78</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36">
         <v>102</v>
       </c>
@@ -689,7 +698,7 @@
         <v>28.33</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37">
         <v>105</v>
       </c>
@@ -697,7 +706,7 @@
         <v>34.54</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38">
         <v>108</v>
       </c>
@@ -705,7 +714,7 @@
         <v>35.22</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39">
         <v>111</v>
       </c>
@@ -713,7 +722,7 @@
         <v>39.21</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40">
         <v>114</v>
       </c>
@@ -721,7 +730,7 @@
         <v>39.43</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2">
       <c r="A41">
         <v>117</v>
       </c>
@@ -729,7 +738,7 @@
         <v>45.03</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42">
         <v>120</v>
       </c>
@@ -737,7 +746,7 @@
         <v>45.34</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43">
         <v>123</v>
       </c>
@@ -745,7 +754,7 @@
         <v>49.65</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2">
       <c r="A44">
         <v>126</v>
       </c>
@@ -753,7 +762,7 @@
         <v>54.49</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2">
       <c r="A45">
         <v>129</v>
       </c>
@@ -761,7 +770,7 @@
         <v>48.28</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2">
       <c r="A46">
         <v>132</v>
       </c>
@@ -769,7 +778,7 @@
         <v>52.95</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2">
       <c r="A47">
         <v>135</v>
       </c>
@@ -777,7 +786,7 @@
         <v>52.3</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2">
       <c r="A48">
         <v>138</v>
       </c>
@@ -785,7 +794,7 @@
         <v>60.31</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2">
       <c r="A49">
         <v>141</v>
       </c>
@@ -793,7 +802,7 @@
         <v>61.23</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2">
       <c r="A50">
         <v>144</v>
       </c>
@@ -801,7 +810,7 @@
         <v>69.61</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2">
       <c r="A51">
         <v>147</v>
       </c>
@@ -809,7 +818,7 @@
         <v>65.98</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2">
       <c r="A52">
         <v>150</v>
       </c>
@@ -817,7 +826,7 @@
         <v>73.010000000000005</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2">
       <c r="A53">
         <v>153</v>
       </c>
@@ -825,7 +834,7 @@
         <v>82.05</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2">
       <c r="A54">
         <v>156</v>
       </c>
@@ -833,7 +842,7 @@
         <v>64.11</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2">
       <c r="A55">
         <v>159</v>
       </c>
@@ -841,7 +850,7 @@
         <v>63.71</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2">
       <c r="A56">
         <v>162</v>
       </c>
@@ -849,7 +858,7 @@
         <v>72.3</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2">
       <c r="A57">
         <v>165</v>
       </c>
@@ -857,7 +866,7 @@
         <v>66.75</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2">
       <c r="A58">
         <v>168</v>
       </c>
@@ -865,7 +874,7 @@
         <v>74.52</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2">
       <c r="A59">
         <v>171</v>
       </c>
@@ -873,7 +882,7 @@
         <v>98.03</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2">
       <c r="A60">
         <v>174</v>
       </c>
@@ -881,7 +890,7 @@
         <v>108.5</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2">
       <c r="A61">
         <v>177</v>
       </c>
@@ -889,7 +898,7 @@
         <v>114.2</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2">
       <c r="A62">
         <v>180</v>
       </c>
@@ -897,7 +906,7 @@
         <v>125.3</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2">
       <c r="A63">
         <v>183</v>
       </c>
@@ -905,7 +914,7 @@
         <v>136.19999999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2">
       <c r="A64">
         <v>186</v>
       </c>
@@ -913,7 +922,7 @@
         <v>133.69999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2">
       <c r="A65">
         <v>189</v>
       </c>
@@ -921,7 +930,7 @@
         <v>134.9</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2">
       <c r="A66">
         <v>192</v>
       </c>
@@ -929,7 +938,7 @@
         <v>135.9</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2">
       <c r="A67">
         <v>195</v>
       </c>
@@ -937,7 +946,7 @@
         <v>150.9</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2">
       <c r="A68">
         <v>198</v>
       </c>
@@ -945,7 +954,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2">
       <c r="A69">
         <v>201</v>
       </c>
@@ -953,7 +962,7 @@
         <v>167.5</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2">
       <c r="A70">
         <v>204</v>
       </c>
@@ -961,7 +970,7 @@
         <v>161.30000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2">
       <c r="A71">
         <v>207</v>
       </c>
@@ -969,7 +978,7 @@
         <v>157.9</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2">
       <c r="A72">
         <v>210</v>
       </c>
@@ -977,7 +986,7 @@
         <v>157.30000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2">
       <c r="A73">
         <v>213</v>
       </c>
@@ -985,7 +994,7 @@
         <v>162.6</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2">
       <c r="A74">
         <v>216</v>
       </c>
@@ -993,7 +1002,7 @@
         <v>170.3</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2">
       <c r="A75">
         <v>219</v>
       </c>
@@ -1001,7 +1010,7 @@
         <v>181.7</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2">
       <c r="A76">
         <v>222</v>
       </c>
@@ -1009,7 +1018,7 @@
         <v>178.8</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2">
       <c r="A77">
         <v>225</v>
       </c>
@@ -1017,7 +1026,7 @@
         <v>189.4</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2">
       <c r="A78">
         <v>228</v>
       </c>
@@ -1025,7 +1034,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2">
       <c r="A79">
         <v>231</v>
       </c>
@@ -1033,7 +1042,7 @@
         <v>204.3</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2">
       <c r="A80">
         <v>234</v>
       </c>
@@ -1041,7 +1050,7 @@
         <v>211.5</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2">
       <c r="A81">
         <v>237</v>
       </c>
@@ -1049,7 +1058,7 @@
         <v>223.9</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2">
       <c r="A82">
         <v>240</v>
       </c>
@@ -1057,7 +1066,7 @@
         <v>232.3</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2">
       <c r="A83">
         <v>243</v>
       </c>
@@ -1065,7 +1074,7 @@
         <v>240.8</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2">
       <c r="A84">
         <v>246</v>
       </c>
@@ -1073,7 +1082,7 @@
         <v>246.9</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2">
       <c r="A85">
         <v>249</v>
       </c>
@@ -1081,7 +1090,7 @@
         <v>257.60000000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2">
       <c r="A86">
         <v>252</v>
       </c>
@@ -1089,7 +1098,7 @@
         <v>270.5</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2">
       <c r="A87">
         <v>255</v>
       </c>
@@ -1107,24 +1116,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA3F72CB-5B5D-466D-88EF-4864E50E4C64}">
   <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1142,7 +1157,7 @@
         <v>1.0933333333333335</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>3</v>
       </c>
@@ -1160,7 +1175,7 @@
         <v>1.0366666666666668</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>6</v>
       </c>
@@ -1178,7 +1193,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>9</v>
       </c>
@@ -1196,7 +1211,7 @@
         <v>1.3933333333333333</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>12</v>
       </c>
@@ -1214,7 +1229,7 @@
         <v>1.4633333333333332</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>15</v>
       </c>
@@ -1232,7 +1247,7 @@
         <v>1.4833333333333332</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>18</v>
       </c>
@@ -1250,7 +1265,7 @@
         <v>1.8233333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>21</v>
       </c>
@@ -1268,7 +1283,7 @@
         <v>1.8433333333333335</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>24</v>
       </c>
@@ -1286,7 +1301,7 @@
         <v>2.0266666666666668</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>27</v>
       </c>
@@ -1304,7 +1319,7 @@
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>30</v>
       </c>
@@ -1322,7 +1337,7 @@
         <v>2.4966666666666666</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>33</v>
       </c>
@@ -1340,7 +1355,7 @@
         <v>2.78</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>36</v>
       </c>
@@ -1358,7 +1373,7 @@
         <v>3.2699999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>39</v>
       </c>
@@ -1376,7 +1391,7 @@
         <v>3.3233333333333337</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>42</v>
       </c>
@@ -1394,7 +1409,7 @@
         <v>4.1133333333333333</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>45</v>
       </c>
@@ -1412,7 +1427,7 @@
         <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>48</v>
       </c>
@@ -1430,7 +1445,7 @@
         <v>4.6766666666666667</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>51</v>
       </c>
@@ -1448,7 +1463,7 @@
         <v>5.6499999999999995</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>54</v>
       </c>
@@ -1466,7 +1481,7 @@
         <v>6.4066666666666663</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>57</v>
       </c>
@@ -1484,7 +1499,7 @@
         <v>8.2066666666666652</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>60</v>
       </c>
@@ -1502,7 +1517,7 @@
         <v>10.323333333333332</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>63</v>
       </c>
@@ -1520,7 +1535,7 @@
         <v>11.056666666666667</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>66</v>
       </c>
@@ -1538,7 +1553,7 @@
         <v>10.68</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>69</v>
       </c>
@@ -1556,7 +1571,7 @@
         <v>13.116666666666667</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>72</v>
       </c>
@@ -1574,7 +1589,7 @@
         <v>13.086666666666668</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>75</v>
       </c>
@@ -1592,7 +1607,7 @@
         <v>18.983333333333334</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>78</v>
       </c>
@@ -1610,7 +1625,7 @@
         <v>17.603333333333332</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>81</v>
       </c>
@@ -1628,7 +1643,7 @@
         <v>17.023333333333333</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>84</v>
       </c>
@@ -1646,7 +1661,7 @@
         <v>18.103333333333335</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>87</v>
       </c>
@@ -1664,7 +1679,7 @@
         <v>24.06</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>90</v>
       </c>
@@ -1682,7 +1697,7 @@
         <v>26.650000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>93</v>
       </c>
@@ -1700,7 +1715,7 @@
         <v>30.33666666666667</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>96</v>
       </c>
@@ -1718,7 +1733,7 @@
         <v>31.403333333333336</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>99</v>
       </c>
@@ -1736,7 +1751,7 @@
         <v>32.526666666666664</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>102</v>
       </c>
@@ -1754,7 +1769,7 @@
         <v>35.566666666666663</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>105</v>
       </c>
@@ -1772,7 +1787,7 @@
         <v>44.31</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>108</v>
       </c>
@@ -1790,7 +1805,7 @@
         <v>40.843333333333334</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>111</v>
       </c>
@@ -1808,7 +1823,7 @@
         <v>41.36333333333333</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>114</v>
       </c>
@@ -1826,7 +1841,7 @@
         <v>40.753333333333337</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5">
       <c r="A41">
         <v>117</v>
       </c>
@@ -1844,7 +1859,7 @@
         <v>41.733333333333327</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5">
       <c r="A42">
         <v>120</v>
       </c>
@@ -1862,7 +1877,7 @@
         <v>45.393333333333338</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5">
       <c r="A43">
         <v>123</v>
       </c>
@@ -1880,7 +1895,7 @@
         <v>46.666666666666664</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5">
       <c r="A44">
         <v>126</v>
       </c>
@@ -1898,7 +1913,7 @@
         <v>58.406666666666666</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="A45">
         <v>129</v>
       </c>
@@ -1916,7 +1931,7 @@
         <v>69.076666666666668</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5">
       <c r="A46">
         <v>132</v>
       </c>
@@ -1934,7 +1949,7 @@
         <v>72.626666666666665</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5">
       <c r="A47">
         <v>135</v>
       </c>
@@ -1952,7 +1967,7 @@
         <v>74.103333333333339</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5">
       <c r="A48">
         <v>138</v>
       </c>
@@ -1970,7 +1985,7 @@
         <v>76.346666666666678</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5">
       <c r="A49">
         <v>141</v>
       </c>
@@ -1988,7 +2003,7 @@
         <v>81.899999999999991</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5">
       <c r="A50">
         <v>144</v>
       </c>
@@ -2006,7 +2021,7 @@
         <v>83.046666666666667</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5">
       <c r="A51">
         <v>147</v>
       </c>
@@ -2024,7 +2039,7 @@
         <v>90.15333333333335</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5">
       <c r="A52">
         <v>150</v>
       </c>
@@ -2042,7 +2057,7 @@
         <v>88.54</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5">
       <c r="A53">
         <v>153</v>
       </c>
@@ -2060,7 +2075,7 @@
         <v>91.23</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5">
       <c r="A54">
         <v>156</v>
       </c>
@@ -2078,7 +2093,7 @@
         <v>96.436666666666667</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5">
       <c r="A55">
         <v>159</v>
       </c>
@@ -2096,7 +2111,7 @@
         <v>97.56</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5">
       <c r="A56">
         <v>162</v>
       </c>
@@ -2114,7 +2129,7 @@
         <v>99.893333333333331</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5">
       <c r="A57">
         <v>165</v>
       </c>
@@ -2132,7 +2147,7 @@
         <v>102.03333333333335</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5">
       <c r="A58">
         <v>168</v>
       </c>
@@ -2150,7 +2165,7 @@
         <v>106.63333333333333</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5">
       <c r="A59">
         <v>171</v>
       </c>
@@ -2168,7 +2183,7 @@
         <v>107.8</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5">
       <c r="A60">
         <v>174</v>
       </c>
@@ -2186,7 +2201,7 @@
         <v>109.86666666666666</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5">
       <c r="A61">
         <v>177</v>
       </c>
@@ -2204,7 +2219,7 @@
         <v>118.19999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5">
       <c r="A62">
         <v>180</v>
       </c>
@@ -2222,7 +2237,7 @@
         <v>123.13333333333333</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5">
       <c r="A63">
         <v>183</v>
       </c>
@@ -2240,7 +2255,7 @@
         <v>121.89999999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5">
       <c r="A64">
         <v>186</v>
       </c>
@@ -2258,7 +2273,7 @@
         <v>125.56666666666666</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5">
       <c r="A65">
         <v>189</v>
       </c>
@@ -2276,7 +2291,7 @@
         <v>145.43333333333331</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5">
       <c r="A66">
         <v>192</v>
       </c>
@@ -2294,7 +2309,7 @@
         <v>143.36666666666665</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5">
       <c r="A67">
         <v>195</v>
       </c>
@@ -2312,7 +2327,7 @@
         <v>143.56666666666666</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5">
       <c r="A68">
         <v>198</v>
       </c>
@@ -2330,7 +2345,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5">
       <c r="A69">
         <v>201</v>
       </c>
@@ -2348,7 +2363,7 @@
         <v>154.66666666666666</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5">
       <c r="A70">
         <v>204</v>
       </c>
@@ -2366,7 +2381,7 @@
         <v>162.36666666666667</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5">
       <c r="A71">
         <v>207</v>
       </c>
@@ -2384,7 +2399,7 @@
         <v>171.06666666666669</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5">
       <c r="A72">
         <v>210</v>
       </c>
@@ -2402,7 +2417,7 @@
         <v>178.33333333333334</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5">
       <c r="A73">
         <v>213</v>
       </c>
@@ -2420,7 +2435,7 @@
         <v>187.4</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5">
       <c r="A74">
         <v>216</v>
       </c>
@@ -2438,7 +2453,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5">
       <c r="A75">
         <v>219</v>
       </c>
@@ -2456,7 +2471,7 @@
         <v>194.4</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5">
       <c r="A76">
         <v>222</v>
       </c>
@@ -2474,7 +2489,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5">
       <c r="A77">
         <v>225</v>
       </c>
@@ -2492,7 +2507,7 @@
         <v>201.6</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5">
       <c r="A78">
         <v>228</v>
       </c>
@@ -2510,7 +2525,7 @@
         <v>210.26666666666665</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5">
       <c r="A79">
         <v>231</v>
       </c>
@@ -2528,7 +2543,7 @@
         <v>216.36666666666665</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5">
       <c r="A80">
         <v>234</v>
       </c>
@@ -2546,7 +2561,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5">
       <c r="A81">
         <v>237</v>
       </c>
@@ -2564,7 +2579,7 @@
         <v>233.9</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5">
       <c r="A82">
         <v>240</v>
       </c>
@@ -2582,7 +2597,7 @@
         <v>242.16666666666666</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5">
       <c r="A83">
         <v>243</v>
       </c>
@@ -2600,7 +2615,7 @@
         <v>250.29999999999998</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5">
       <c r="A84">
         <v>246</v>
       </c>
@@ -2618,7 +2633,7 @@
         <v>256.83333333333331</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5">
       <c r="A85">
         <v>249</v>
       </c>
@@ -2636,7 +2651,7 @@
         <v>265.73333333333329</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5">
       <c r="A86">
         <v>252</v>
       </c>
@@ -2654,7 +2669,7 @@
         <v>276.09999999999997</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5">
       <c r="A87">
         <v>255</v>
       </c>
@@ -2679,4 +2694,22 @@
     <ignoredError sqref="E2" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3CA20F2-93DD-4297-86F2-8DCBF74727F0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>